--- a/AEF_files/11.syntax.failed/202405241221---AEF Guyana 2024 Revised 4 Final.syntax_checked.xlsx
+++ b/AEF_files/11.syntax.failed/202405241221---AEF Guyana 2024 Revised 4 Final.syntax_checked.xlsx
@@ -2137,8 +2137,8 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101008FB6730B0802B54A9F00C78B857E1443" ma:contentTypeVersion="21" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="e7d0671dbe340d15fdce5ab7e9f4c491">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="819ae873-75e1-413b-9d00-7af9258cf281" xmlns:ns3="eb4559c4-8463-4985-927f-f0d558bff8f0" xmlns:ns4="13d80b15-5f07-43ab-b435-85767a7dac08" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="2feafd61044eb4abe44eb47c2e62f3e5" ns2:_="" ns3:_="" ns4:_="">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101008FB6730B0802B54A9F00C78B857E1443" ma:contentTypeVersion="21" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="e758502e7902c92bdb050e89a8fea950">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="819ae873-75e1-413b-9d00-7af9258cf281" xmlns:ns3="eb4559c4-8463-4985-927f-f0d558bff8f0" xmlns:ns4="13d80b15-5f07-43ab-b435-85767a7dac08" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f4060acd4b29e25a8a76462245842ebf" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="819ae873-75e1-413b-9d00-7af9258cf281"/>
     <xsd:import namespace="eb4559c4-8463-4985-927f-f0d558bff8f0"/>
     <xsd:import namespace="13d80b15-5f07-43ab-b435-85767a7dac08"/>
@@ -2439,26 +2439,26 @@
       <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     </lcf76f155ced4ddcb4097134ff3c332f>
     <TaxCatchAll xmlns="eb4559c4-8463-4985-927f-f0d558bff8f0" xsi:nil="true"/>
+    <Ready xmlns="819ae873-75e1-413b-9d00-7af9258cf281">true</Ready>
+    <Comments xmlns="819ae873-75e1-413b-9d00-7af9258cf281" xsi:nil="true"/>
     <Doc_x002e_SymbolNumber xmlns="819ae873-75e1-413b-9d00-7af9258cf281" xsi:nil="true"/>
-    <Ready xmlns="819ae873-75e1-413b-9d00-7af9258cf281">true</Ready>
     <_Flow_SignoffStatus xmlns="819ae873-75e1-413b-9d00-7af9258cf281" xsi:nil="true"/>
-    <Comments xmlns="819ae873-75e1-413b-9d00-7af9258cf281" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BAA86EC8-D4EF-4DDE-A708-41068050D701}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FB49CDCC-255A-4D07-84EC-870F3E2C6173}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1CF40032-92FF-46CD-ABED-D3FB9A98B192}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{56804DAC-74DE-4BB3-BDB4-E6533F08EABC}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0C7F282A-84DC-4000-8BC5-8BACDE1FEBA8}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A97F33F5-A820-46BE-B555-9BBBB3E6A9E9}"/>
 </file>
 
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9DDDD72C-9DEB-4981-8E63-405F7DF5BDB3}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{269B3436-C9D3-4299-ADA9-D7974850A10E}"/>
 </file>
--- a/AEF_files/11.syntax.failed/202405241221---AEF Guyana 2024 Revised 4 Final.syntax_checked.xlsx
+++ b/AEF_files/11.syntax.failed/202405241221---AEF Guyana 2024 Revised 4 Final.syntax_checked.xlsx
@@ -2448,17 +2448,17 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FB49CDCC-255A-4D07-84EC-870F3E2C6173}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7D325EA0-81F3-4144-913E-3E46B2D6CE25}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{56804DAC-74DE-4BB3-BDB4-E6533F08EABC}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{241F7104-F517-44C2-BF0B-E6EEC65F51C4}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A97F33F5-A820-46BE-B555-9BBBB3E6A9E9}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CFA32DF4-4C13-4D4A-9BFD-1B9BD84EE2DF}"/>
 </file>
 
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{269B3436-C9D3-4299-ADA9-D7974850A10E}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{23718073-3614-4B3F-982B-3E3805D7C1B7}"/>
 </file>
--- a/AEF_files/11.syntax.failed/202405241221---AEF Guyana 2024 Revised 4 Final.syntax_checked.xlsx
+++ b/AEF_files/11.syntax.failed/202405241221---AEF Guyana 2024 Revised 4 Final.syntax_checked.xlsx
@@ -2448,17 +2448,17 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7D325EA0-81F3-4144-913E-3E46B2D6CE25}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{730B4CBF-6588-41DA-A413-8871750D837A}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{241F7104-F517-44C2-BF0B-E6EEC65F51C4}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7AFD4BB1-AE8C-4F1C-98C4-C72E7CB05488}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CFA32DF4-4C13-4D4A-9BFD-1B9BD84EE2DF}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0D83558F-8218-430E-83E9-87455B4A5F3D}"/>
 </file>
 
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{23718073-3614-4B3F-982B-3E3805D7C1B7}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B15B7928-9E66-4877-84EB-EEB474211A2C}"/>
 </file>